--- a/aug_pc_result/2026_Feb_08_18_57_39_d_separation_kci_pc_gt_graph_AdaSyn_20_691454/ori_pc_raw_eval_res.xlsx
+++ b/aug_pc_result/2026_Feb_08_18_57_39_d_separation_kci_pc_gt_graph_AdaSyn_20_691454/ori_pc_raw_eval_res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CausalLearning\code\aug_pc_result\2026_Feb_08_18_57_39_d_separation_kci_pc_gt_graph_AdaSyn_20_691454\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6A980F-D983-472D-AF82-BF07575E8939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6C7D35-95FB-43AD-9247-785179B16ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
